--- a/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20250927_122537.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20250927_122537.xlsx
@@ -5083,7 +5083,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
